--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl4-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl4-Ackr2.xlsx
@@ -76,10 +76,10 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2972863333333334</v>
+        <v>0.03814</v>
       </c>
       <c r="H2">
-        <v>0.8918590000000001</v>
+        <v>0.11442</v>
       </c>
       <c r="I2">
-        <v>0.005248245818680278</v>
+        <v>0.0004360684493923871</v>
       </c>
       <c r="J2">
-        <v>0.005248245818680278</v>
+        <v>0.0004360684493923871</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.08164295295977779</v>
+        <v>0.01047428649333333</v>
       </c>
       <c r="R2">
-        <v>0.7347865766380001</v>
+        <v>0.09426857844</v>
       </c>
       <c r="S2">
-        <v>0.005248245818680278</v>
+        <v>0.0004360684493923871</v>
       </c>
       <c r="T2">
-        <v>0.005248245818680278</v>
+        <v>0.0004360684493923871</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,25 +587,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.418502333333333</v>
+        <v>0.2972863333333333</v>
       </c>
       <c r="H3">
-        <v>4.255507</v>
+        <v>0.891859</v>
       </c>
       <c r="I3">
-        <v>0.0250420154072725</v>
+        <v>0.003398982443686812</v>
       </c>
       <c r="J3">
-        <v>0.0250420154072725</v>
+        <v>0.003398982443686811</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.3895595131304445</v>
+        <v>0.08164295295977778</v>
       </c>
       <c r="R3">
-        <v>3.506035618174</v>
+        <v>0.734786576638</v>
       </c>
       <c r="S3">
-        <v>0.0250420154072725</v>
+        <v>0.003398982443686812</v>
       </c>
       <c r="T3">
-        <v>0.0250420154072725</v>
+        <v>0.003398982443686811</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>54.92910633333333</v>
+        <v>87.12790666666666</v>
       </c>
       <c r="H4">
-        <v>164.787319</v>
+        <v>261.38372</v>
       </c>
       <c r="I4">
-        <v>0.9697097387740472</v>
+        <v>0.9961649491069209</v>
       </c>
       <c r="J4">
-        <v>0.9697097387740472</v>
+        <v>0.9961649491069208</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>15.08503399470644</v>
+        <v>23.92770466678222</v>
       </c>
       <c r="R4">
-        <v>135.765305952358</v>
+        <v>215.34934200104</v>
       </c>
       <c r="S4">
-        <v>0.9697097387740472</v>
+        <v>0.9961649491069209</v>
       </c>
       <c r="T4">
-        <v>0.9697097387740472</v>
+        <v>0.9961649491069208</v>
       </c>
     </row>
   </sheetData>
